--- a/biology/Histoire de la zoologie et de la botanique/Mayenne-Sciences/Mayenne-Sciences.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Mayenne-Sciences/Mayenne-Sciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mayenne-Sciences était une société savante qui réunit à partir de 1906 des scientifiques, érudits, professionnels ou amateurs. Son but est l'étude de la faune et de la flore du département de la Mayenne. En 1993, Mayenne-Sciences, rejoint l'association Mayenne Nature Environnement.
 La Société a été fondée en janvier 1906. La Société publie le Bulletin de Mayenne-Sciences depuis sa fondation de façon annuelle.
@@ -512,7 +524,9 @@
           <t>Plusieurs membres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Roger Bouillon
 Charles Chedeau
@@ -523,7 +537,7 @@
 Paul Delaunay
 Albert Goupil
 Paul Jouannault
-Emile Labbé (4 février 1873, Laval - décembre 1927)[1].
+Emile Labbé (4 février 1873, Laval - décembre 1927).
 Paul Masseron
 Daniel Œhlert</t>
         </is>
